--- a/scrum_resource/Sprint_3/Burnup Sheet (Sprint 1 + 2 + 3).xlsx
+++ b/scrum_resource/Sprint_3/Burnup Sheet (Sprint 1 + 2 + 3).xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C054E78-B9B9-4F7D-B990-1366D0181609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,32 +34,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,44 +74,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -287,25 +300,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.14"/>
-    <col customWidth="1" min="3" max="3" width="19.57"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -316,464 +334,452 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44476.0</v>
+        <v>44476</v>
       </c>
       <c r="B2" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44477.0</v>
+        <v>44477</v>
       </c>
       <c r="B3" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44478.0</v>
+        <v>44478</v>
       </c>
       <c r="B4" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44479.0</v>
+        <v>44479</v>
       </c>
       <c r="B5" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44480.0</v>
+        <v>44480</v>
       </c>
       <c r="B6" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44481.0</v>
+        <v>44481</v>
       </c>
       <c r="B7" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>44482.0</v>
+        <v>44482</v>
       </c>
       <c r="B8" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>44483.0</v>
+        <v>44483</v>
       </c>
       <c r="B9" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>44484.0</v>
+        <v>44484</v>
       </c>
       <c r="B10" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>44485.0</v>
+        <v>44485</v>
       </c>
       <c r="B11" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>44486.0</v>
+        <v>44486</v>
       </c>
       <c r="B12" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>44487.0</v>
+        <v>44487</v>
       </c>
       <c r="B13" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44488.0</v>
+        <v>44488</v>
       </c>
       <c r="B14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44489.0</v>
+        <v>44489</v>
       </c>
       <c r="B15" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44490.0</v>
+        <v>44490</v>
       </c>
       <c r="B16" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44491.0</v>
+        <v>44491</v>
       </c>
       <c r="B17" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44492.0</v>
+        <v>44492</v>
       </c>
       <c r="B18" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44493.0</v>
+        <v>44493</v>
       </c>
       <c r="B19" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B20" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44495.0</v>
+        <v>44495</v>
       </c>
       <c r="B21" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44496.0</v>
+        <v>44496</v>
       </c>
       <c r="B22" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44497.0</v>
+        <v>44497</v>
       </c>
       <c r="B23" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44498.0</v>
+        <v>44498</v>
       </c>
       <c r="B24" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44499.0</v>
+        <v>44499</v>
       </c>
       <c r="B25" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44500.0</v>
+        <v>44500</v>
       </c>
       <c r="B26" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44501.0</v>
+        <v>44501</v>
       </c>
       <c r="B27" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44502.0</v>
+        <v>44502</v>
       </c>
       <c r="B28" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>44503.0</v>
+        <v>44503</v>
       </c>
       <c r="B29" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>44504.0</v>
+        <v>44504</v>
       </c>
       <c r="B30" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>44505.0</v>
+        <v>44505</v>
       </c>
       <c r="B31" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>44506.0</v>
+        <v>44506</v>
       </c>
       <c r="B32" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>44507.0</v>
+        <v>44507</v>
       </c>
       <c r="B33" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44508.0</v>
+        <v>44508</v>
       </c>
       <c r="B34" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C34" s="5">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44509.0</v>
+        <v>44509</v>
       </c>
       <c r="B35" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C35" s="5">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2">
-        <v>44502.0</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>44510</v>
       </c>
       <c r="B36" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C36" s="5">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>44510.0</v>
+        <v>44511</v>
       </c>
       <c r="B37" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C37" s="5">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44511.0</v>
+        <v>44512</v>
       </c>
       <c r="B38" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C38" s="5">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4">
-        <v>44512.0</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44513</v>
       </c>
       <c r="B39" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C39" s="5">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44513.0</v>
+        <v>44514</v>
       </c>
       <c r="B40" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C40" s="5">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44514.0</v>
+        <v>44515</v>
       </c>
       <c r="B41" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="C41" s="5">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2">
-        <v>44515.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
--- a/scrum_resource/Sprint_3/Burnup Sheet (Sprint 1 + 2 + 3).xlsx
+++ b/scrum_resource/Sprint_3/Burnup Sheet (Sprint 1 + 2 + 3).xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C054E78-B9B9-4F7D-B990-1366D0181609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -34,37 +25,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -74,43 +60,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -300,30 +287,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="25.14"/>
+    <col customWidth="1" min="3" max="3" width="19.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -334,452 +316,472 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2">
-        <v>44476</v>
+        <v>44476.0</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2">
-        <v>44477</v>
+        <v>44477.0</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2">
-        <v>44478</v>
+        <v>44478.0</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2">
-        <v>44479</v>
+        <v>44479.0</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2">
-        <v>44480</v>
+        <v>44480.0</v>
       </c>
       <c r="B6" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2">
-        <v>44481</v>
+        <v>44481.0</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="3">
-        <v>44482</v>
+        <v>44482.0</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="3">
-        <v>44483</v>
+        <v>44483.0</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="3">
-        <v>44484</v>
+        <v>44484.0</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="3">
-        <v>44485</v>
+        <v>44485.0</v>
       </c>
       <c r="B11" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3">
-        <v>44486</v>
+        <v>44486.0</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="3">
-        <v>44487</v>
+        <v>44487.0</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C13" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2">
-        <v>44488</v>
+        <v>44488.0</v>
       </c>
       <c r="B14" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C14" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="2">
-        <v>44489</v>
+        <v>44489.0</v>
       </c>
       <c r="B15" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="2">
-        <v>44490</v>
+        <v>44490.0</v>
       </c>
       <c r="B16" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2">
-        <v>44491</v>
+        <v>44491.0</v>
       </c>
       <c r="B17" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2">
-        <v>44492</v>
+        <v>44492.0</v>
       </c>
       <c r="B18" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C18" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2">
-        <v>44493</v>
+        <v>44493.0</v>
       </c>
       <c r="B19" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C19" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2">
-        <v>44494</v>
+        <v>44494.0</v>
       </c>
       <c r="B20" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C20" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="2">
-        <v>44495</v>
+        <v>44495.0</v>
       </c>
       <c r="B21" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C21" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="2">
-        <v>44496</v>
+        <v>44496.0</v>
       </c>
       <c r="B22" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C22" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="2">
-        <v>44497</v>
+        <v>44497.0</v>
       </c>
       <c r="B23" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C23" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="2">
-        <v>44498</v>
+        <v>44498.0</v>
       </c>
       <c r="B24" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C24" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="2">
-        <v>44499</v>
+        <v>44499.0</v>
       </c>
       <c r="B25" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C25" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="2">
-        <v>44500</v>
+        <v>44500.0</v>
       </c>
       <c r="B26" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C26" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="2">
-        <v>44501</v>
+        <v>44501.0</v>
       </c>
       <c r="B27" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C27" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="2">
-        <v>44502</v>
+        <v>44502.0</v>
       </c>
       <c r="B28" s="1">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="C28" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="4">
-        <v>44503</v>
+        <v>44503.0</v>
       </c>
       <c r="B29" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C29" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="4">
-        <v>44504</v>
+        <v>44504.0</v>
       </c>
       <c r="B30" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C30" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="4">
-        <v>44505</v>
+        <v>44505.0</v>
       </c>
       <c r="B31" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C31" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="4">
-        <v>44506</v>
+        <v>44506.0</v>
       </c>
       <c r="B32" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C32" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="4">
-        <v>44507</v>
+        <v>44507.0</v>
       </c>
       <c r="B33" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C33" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="4">
-        <v>44508</v>
+        <v>44508.0</v>
       </c>
       <c r="B34" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C34" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="4">
-        <v>44509</v>
+        <v>44509.0</v>
       </c>
       <c r="B35" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C35" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>44510</v>
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44502.0</v>
       </c>
       <c r="B36" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C36" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="4">
-        <v>44511</v>
+        <v>44510.0</v>
       </c>
       <c r="B37" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C37" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="4">
-        <v>44512</v>
+        <v>44511.0</v>
       </c>
       <c r="B38" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C38" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>44513</v>
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4">
+        <v>44512.0</v>
       </c>
       <c r="B39" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C39" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="2">
-        <v>44514</v>
+        <v>44513.0</v>
       </c>
       <c r="B40" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="C40" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="2">
-        <v>44515</v>
+        <v>44514.0</v>
       </c>
       <c r="B41" s="1">
-        <v>100</v>
-      </c>
-      <c r="C41" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+        <v>100.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>44515.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4">
+        <v>44516.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>87.0</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>